--- a/Inspectra/Data/Lohnartenabrechnungsdaten.xlsx
+++ b/Inspectra/Data/Lohnartenabrechnungsdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Abr_Jahr" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
